--- a/Parameters_ALK_30/demand_parameters.xlsx
+++ b/Parameters_ALK_30/demand_parameters.xlsx
@@ -453,7 +453,7 @@
         <v>102.63</v>
       </c>
       <c r="D2" s="5">
-        <v>7411386</v>
+        <v>5700000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
